--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -10,7 +10,6 @@
     <sheet name="ＥＲ図" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -350,7 +349,92 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042147" y="3462618"/>
+          <a:ext cx="1961029" cy="168088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ひまつぶしアイテムコード</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -359,316 +443,229 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="グループ化 46"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1042147" y="3294529"/>
-          <a:ext cx="1961029" cy="1344706"/>
-          <a:chOff x="2129118" y="3193676"/>
-          <a:chExt cx="1961029" cy="1344706"/>
+          <a:off x="1042147" y="3630706"/>
+          <a:ext cx="1961029" cy="1008529"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2129118" y="3361765"/>
-            <a:ext cx="1961029" cy="168088"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:ln w="9525">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ステージコード</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>装備コード</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2129118" y="3529853"/>
-            <a:ext cx="1961029" cy="1008529"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行動コード</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>裏達成ポイント</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>装備名称</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>価格</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>良い芽伸び率</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>悪い芽</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>伸び率</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>装備説明</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2129118" y="3193676"/>
-            <a:ext cx="1961029" cy="168089"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>削除フラグ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042147" y="3294529"/>
+          <a:ext cx="1961029" cy="168089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
           <a:noFill/>
-          <a:ln w="0">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>装備</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ｍ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ひまつぶしアイテム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ｍ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -825,6 +822,42 @@
               </a:rPr>
               <a:t>ステージ名称</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>BGM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ファイル名</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -847,79 +880,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>出力条件</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>良い芽</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>出力条件</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>悪い芽</a:t>
+              <a:t>壁紙ファイル名</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1316,259 +1277,272 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042147" y="6152029"/>
+          <a:ext cx="1961029" cy="504265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ステージコード</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行動コード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042147" y="6656294"/>
+          <a:ext cx="1961029" cy="767602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャラクター画像</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>削除フラグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>3360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="グループ化 50"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1042147" y="5987301"/>
-          <a:ext cx="2132479" cy="1436595"/>
-          <a:chOff x="2129118" y="7567331"/>
-          <a:chExt cx="2132479" cy="1436594"/>
+          <a:ext cx="2132479" cy="164728"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2129118" y="7732059"/>
-            <a:ext cx="1961029" cy="504265"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャラクター行動マスタ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ステージコード</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>行動コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2129118" y="8236324"/>
-            <a:ext cx="1961029" cy="767601"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>行動名称</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>良い芽伸び率</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>悪い芽伸び率</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2129118" y="7567331"/>
-            <a:ext cx="2132479" cy="164728"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="0">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ステージ内行動マスタ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1798,7 +1772,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>クリア済ステージＴ</a:t>
+              <a:t>行動済ステージＴ</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1830,7 +1804,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="62" name="グループ化 61"/>
+        <xdr:cNvPr id="48" name="グループ化 47"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1841,321 +1815,21 @@
           <a:chExt cx="1961029" cy="504265"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="48" name="グループ化 47"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2129118" y="5042647"/>
-            <a:ext cx="1961029" cy="504265"/>
-            <a:chOff x="2129118" y="5042647"/>
-            <a:chExt cx="1961029" cy="504265"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="正方形/長方形 13"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2129118" y="5210735"/>
-              <a:ext cx="1961029" cy="168089"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>今日の一言コード</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2129118" y="5378825"/>
-              <a:ext cx="1961029" cy="168087"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>今日の一言内容</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2129118" y="5042647"/>
-              <a:ext cx="1961029" cy="168088"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2129118" y="5042647"/>
-            <a:ext cx="1961029" cy="168088"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="0">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>今日の一言</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ｍ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>41462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>942415</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="124" name="グループ化 123"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3485029" y="4344521"/>
-          <a:ext cx="1704415" cy="798979"/>
-          <a:chOff x="3485029" y="4344521"/>
-          <a:chExt cx="1704415" cy="798979"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="正方形/長方形 32"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3485029" y="4493558"/>
-            <a:ext cx="1456765" cy="481854"/>
+            <a:off x="2129118" y="5210735"/>
+            <a:ext cx="1961029" cy="168089"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent6">
+            <a:schemeClr val="accent5">
               <a:lumMod val="20000"/>
               <a:lumOff val="80000"/>
             </a:schemeClr>
@@ -2197,31 +1871,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>キャラクターコード</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>装備コード</a:t>
+              <a:t>今日の格言コード</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -2237,169 +1887,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3485029" y="4344521"/>
-            <a:ext cx="1704415" cy="149038"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="0">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>所持装備Ｔ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="正方形/長方形 35"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3485029" y="4975412"/>
-            <a:ext cx="1456765" cy="168088"/>
+            <a:off x="2129118" y="5378825"/>
+            <a:ext cx="1961029" cy="168087"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="54" name="グループ化 53"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4247029" y="1949824"/>
-          <a:ext cx="1456765" cy="2017058"/>
-          <a:chOff x="5334000" y="3380815"/>
-          <a:chExt cx="1704415" cy="1587043"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="正方形/長方形 36"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5334000" y="3529853"/>
-            <a:ext cx="1456765" cy="168088"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
+            <a:schemeClr val="accent5">
               <a:lumMod val="20000"/>
               <a:lumOff val="80000"/>
             </a:schemeClr>
@@ -2441,29 +1941,20 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>キャラクターコード</a:t>
+              <a:t>今日の格言内容</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5334000" y="3380815"/>
-            <a:ext cx="1704415" cy="149038"/>
+            <a:off x="2129118" y="5042647"/>
+            <a:ext cx="1961029" cy="168088"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2494,18 +1985,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>キャラクター基本情報Ｔ</a:t>
-            </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -2518,224 +1997,390 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="正方形/長方形 38"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5334000" y="3701302"/>
-            <a:ext cx="1456765" cy="1266556"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525">
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7586383" y="605118"/>
+          <a:ext cx="1961029" cy="168088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>今日の格言</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ｍ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>所持金</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>良い芽長さ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>悪い芽長さ</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>日光度</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>役職コード</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>選択服装コード</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>選択</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>髪型</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>コード</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>今日の一言コード</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1245098</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4247029" y="2139244"/>
+          <a:ext cx="1245098" cy="213632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャラクターコード</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4247029" y="1949824"/>
+          <a:ext cx="1736912" cy="156882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャラクター基本情報Ｔ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1245098</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4247029" y="2357148"/>
+          <a:ext cx="1245098" cy="1609734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所持金</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>裏達成ポイント</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>役職コード</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>今日の格言コード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3152,58 +2797,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="カギ線コネクタ 58"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="36" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3003176" y="4134971"/>
-          <a:ext cx="481853" cy="924485"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>5604</xdr:rowOff>
@@ -3571,71 +3164,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>156884</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3137646" y="3854824"/>
-          <a:ext cx="1355912" cy="268942"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>服装・髪型入手</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1245098</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -3806,7 +3334,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>今日の一言入手</a:t>
+            <a:t>今日の格言入手</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3984,7 +3512,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>日光浴完了</a:t>
+            <a:t>服装変更</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -3992,21 +3520,274 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042147" y="8169088"/>
+          <a:ext cx="2420471" cy="134471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>服装変更</a:t>
+            <a:t>ひまつぶしアイテム獲得率マスタ</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042147" y="8337176"/>
+          <a:ext cx="1961029" cy="504265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ステージコード</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行動コード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042147" y="8841441"/>
+          <a:ext cx="1961029" cy="767602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>獲得ひまつぶしアイテムコード</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>獲得率</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4305,7 +4086,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -349,13 +349,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -365,8 +365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1042147" y="3462618"/>
-          <a:ext cx="1961029" cy="168088"/>
+          <a:off x="1042147" y="3462617"/>
+          <a:ext cx="1961029" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,9 +403,8 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -414,16 +413,33 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ひまつぶしアイテムコード</a:t>
+            <a:t>ステージコード</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行動コード</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -434,13 +450,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -450,7 +466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1042147" y="3630706"/>
+          <a:off x="1042147" y="3966883"/>
           <a:ext cx="1961029" cy="1008529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -499,7 +515,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ステージコード</a:t>
+            <a:t>ひまつぶし名称</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -512,9 +528,25 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -523,13 +555,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>行動コード</a:t>
+            <a:t>キャラクター画像</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -538,9 +567,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>裏達成ポイント</a:t>
+            <a:t>ID</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -553,6 +582,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>加算</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -562,7 +603,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>削除フラグ</a:t>
+            <a:t>裏達成ポイント</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -1276,278 +1317,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1042147" y="6152029"/>
-          <a:ext cx="1961029" cy="504265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ステージコード</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>行動コード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1042147" y="6656294"/>
-          <a:ext cx="1961029" cy="767602"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>キャラクター画像</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>削除フラグ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>3360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1042147" y="5987301"/>
-          <a:ext cx="2132479" cy="164728"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>キャラクター行動マスタ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>481852</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
@@ -2263,7 +2032,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1245098</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2274,7 +2043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4247029" y="2357148"/>
-          <a:ext cx="1245098" cy="1609734"/>
+          <a:ext cx="1245098" cy="1273558"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2310,21 +2079,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>所持金</a:t>
-          </a:r>
-        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2894,134 +2648,31 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>150720</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1243852</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="カギ線コネクタ 65"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="3"/>
-          <a:endCxn id="42" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3003176" y="6470838"/>
-          <a:ext cx="1243852" cy="569257"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>622549</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>150720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvPr id="66" name="カギ線コネクタ 65"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="2"/>
-          <a:endCxn id="42" idx="3"/>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4034708" y="4801752"/>
-          <a:ext cx="2503956" cy="834216"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 13112"/>
-            <a:gd name="adj2" fmla="val 127403"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1042146</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>74518</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="カギ線コネクタ 69"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="40" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="1042146" y="2538132"/>
-          <a:ext cx="3204883" cy="3352239"/>
+        <a:xfrm>
+          <a:off x="3003176" y="4471148"/>
+          <a:ext cx="1243853" cy="1999690"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -7133"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3100,15 +2751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3117,7 +2768,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4090148" y="6970058"/>
+          <a:off x="3305736" y="6488205"/>
           <a:ext cx="1355912" cy="268941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3172,7 +2823,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>649942</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>35574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3186,7 +2837,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="5492127" y="2538132"/>
-          <a:ext cx="2094256" cy="623883"/>
+          <a:ext cx="2094256" cy="455795"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3408,33 +3059,141 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1232647</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4190999" y="2454088"/>
-          <a:ext cx="1131795" cy="1187823"/>
+          <a:off x="1042147" y="5647764"/>
+          <a:ext cx="1961029" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ステージコード</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行動コード</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042147" y="6152031"/>
+          <a:ext cx="1961029" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3459,134 +3218,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>所持金再計算</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>良い芽再計算</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>悪い芽再計算</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>服装変更</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1042147" y="8169088"/>
-          <a:ext cx="2420471" cy="134471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ひまつぶしアイテム獲得率マスタ</a:t>
+            <a:t>所持数</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3606,23 +3247,308 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1042147" y="8337176"/>
+          <a:off x="1042147" y="5479676"/>
+          <a:ext cx="1961029" cy="168089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所持アイテム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ｍ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="カギ線コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="1"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1042147" y="4471147"/>
+          <a:ext cx="12700" cy="1848971"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>896470</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1210235</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="896470" y="5154706"/>
+          <a:ext cx="1355912" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ひま入手</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1187824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5703794" y="3966882"/>
+          <a:ext cx="2420471" cy="134471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ひまつぶしアイテム獲得率Ｍ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5703794" y="4134970"/>
           <a:ext cx="1961029" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3695,25 +3621,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1042147" y="8841441"/>
+          <a:off x="5703794" y="4639235"/>
           <a:ext cx="1961029" cy="767602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3787,6 +3713,139 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>獲得率</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3003176" y="4471148"/>
+          <a:ext cx="2700618" cy="551888"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4403911" y="4415118"/>
+          <a:ext cx="1355912" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージクリア時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>算出</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4085,9 +4144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -4,21 +4,45 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ＥＲ図" sheetId="6" r:id="rId1"/>
+    <sheet name="ＥＲ図 (2)" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>ＥＲ図</t>
     <rPh sb="2" eb="3">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティ名は大文字始まり</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アトリビュートは小文字始まり</t>
+    <rPh sb="8" eb="11">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -27,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +82,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -89,6 +122,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3855,6 +3891,5412 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="60" name="グループ化 59"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="750794" y="3294528"/>
+          <a:ext cx="2577353" cy="2286001"/>
+          <a:chOff x="1042147" y="3294529"/>
+          <a:chExt cx="1961029" cy="2084294"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="3462617"/>
+            <a:ext cx="1961029" cy="246842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>アイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>【itemID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> :  int32 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="3709459"/>
+            <a:ext cx="1961029" cy="1669364"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【stageID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動コード</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【actID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム名称</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【itemName : String】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム説明 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【itemText : String】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテムファイル名 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【image : String】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>加算</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>裏達成ポイント </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【point : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>処理時間 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【procTime : int32】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>使用枠 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【useArea</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="3294529"/>
+            <a:ext cx="1961029" cy="168089"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ひまつぶしアイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Ｍ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【ItemM】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1837765</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="549088" y="1636061"/>
+          <a:ext cx="2330824" cy="1243851"/>
+          <a:chOff x="3899647" y="784414"/>
+          <a:chExt cx="1804147" cy="1243851"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3899647" y="952502"/>
+            <a:ext cx="1804147" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【stageID : int32】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3899647" y="1120590"/>
+            <a:ext cx="1804147" cy="907675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>名称 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【stageName】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ステージ説明 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【stageText</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : String</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>BGM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ファイル名 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【bgm : String】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>壁紙ファイル名 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【wallPaper : String】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3899647" y="784414"/>
+            <a:ext cx="1804147" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ステージＭ　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【StageM】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>997325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7933766" y="2274795"/>
+          <a:ext cx="1961029" cy="1109381"/>
+          <a:chOff x="12729883" y="2017059"/>
+          <a:chExt cx="1961029" cy="1109381"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2185146"/>
+            <a:ext cx="1961029" cy="369794"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>役職</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【jobID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2554941"/>
+            <a:ext cx="1961029" cy="571499"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>役職名称</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【jobName : String】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>役職説明 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【jobText : String】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2017059"/>
+            <a:ext cx="1961029" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>役職Ｍ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【JobM】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1916204</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="526677" y="593911"/>
+          <a:ext cx="2431674" cy="683560"/>
+          <a:chOff x="6783814" y="5423646"/>
+          <a:chExt cx="1508539" cy="683560"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6790765" y="5602942"/>
+            <a:ext cx="1501588" cy="280146"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>キャラクタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【charaID : int32】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6790765" y="5849469"/>
+            <a:ext cx="1501588" cy="257737"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>取得済</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【stageID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6783814" y="5423646"/>
+            <a:ext cx="1501588" cy="168089"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>取得済ステージＴ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【RefStageT】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1086970</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168086</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="グループ化 99"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8023411" y="705970"/>
+          <a:ext cx="2375646" cy="862853"/>
+          <a:chOff x="14814177" y="649941"/>
+          <a:chExt cx="2375646" cy="862853"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14814177" y="825500"/>
+            <a:ext cx="2375646" cy="295088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>迷言</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【meigenID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14814177" y="1120588"/>
+            <a:ext cx="2375646" cy="392206"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>迷言内容 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【meigenText : String】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14814177" y="649941"/>
+            <a:ext cx="1961029" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>迷言</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Ｍ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【MeigenM】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1243852</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4247028" y="2139243"/>
+          <a:ext cx="2823883" cy="225197"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャラクタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID 【charaID :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> int32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1243852</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4247028" y="1949824"/>
+          <a:ext cx="2846295" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャラクター基本情報Ｔ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【CharaBaseT】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4247029" y="2357148"/>
+          <a:ext cx="2823884" cy="1486470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名前 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【charaName : String】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生年月日 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【charaBirth</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : Date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>達成ポイント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【point1 : int32】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>達成ポイント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【point2 : int32】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>達成ポイント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【point3: int32】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>現在の役職</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【jobID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : int32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>今日の迷言</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【meigenID : int32】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>616322</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5726204" y="6813176"/>
+          <a:ext cx="3070412" cy="1591235"/>
+          <a:chOff x="5333999" y="5229785"/>
+          <a:chExt cx="1704416" cy="1325657"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5334000" y="5378823"/>
+            <a:ext cx="1704414" cy="187137"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>キャラクタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【charaID : int32】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5334000" y="5229785"/>
+            <a:ext cx="1704415" cy="149039"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動履歴Ｔ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5333999" y="5550274"/>
+            <a:ext cx="1704415" cy="1005168"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動セット日時</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【actSetDate : date】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動実行開始日時 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【actStartDate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : date</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>実行終了日時 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【actEndDate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : date</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>使用アイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【itemID : int32】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動結果</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【resultID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302935" y="6606987"/>
+          <a:ext cx="1359834" cy="275665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行動セット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>963707</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>392207</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7900148" y="3809999"/>
+          <a:ext cx="1355912" cy="268942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージクリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885265</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1008530</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6590740" y="1098177"/>
+          <a:ext cx="1351990" cy="275665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今日の格言入手</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>44828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="グループ化 60"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1143000" y="6533034"/>
+          <a:ext cx="2420471" cy="1344701"/>
+          <a:chOff x="1042147" y="5479676"/>
+          <a:chExt cx="1961029" cy="829383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="5983941"/>
+            <a:ext cx="1961029" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="5647765"/>
+            <a:ext cx="1961029" cy="216746"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>キャラクタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> 【charaID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="5871146"/>
+            <a:ext cx="1961029" cy="437913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【itemID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>所持数 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【getItems : int32】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="5479676"/>
+            <a:ext cx="1961029" cy="168089"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>所持アイテムＴ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【GetItemT】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22411" y="5255559"/>
+          <a:ext cx="1355912" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ひま入手</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1233895</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="グループ化 58"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5715001" y="4381500"/>
+          <a:ext cx="2455335" cy="1344707"/>
+          <a:chOff x="5703794" y="3966882"/>
+          <a:chExt cx="1949825" cy="1344707"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5703794" y="3966882"/>
+            <a:ext cx="1948835" cy="168089"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム獲得率Ｍ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【DropItemM】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5703795" y="4134971"/>
+            <a:ext cx="1949824" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【itemID :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5703794" y="4515971"/>
+            <a:ext cx="1949824" cy="795618"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>獲得アイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【getItemID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>獲得率 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【percent : Decimal】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1053353</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1165412</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4056529" y="4482353"/>
+          <a:ext cx="1355912" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージクリア時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>算出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="グループ化 82"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8516471" y="4336676"/>
+          <a:ext cx="2554941" cy="1355912"/>
+          <a:chOff x="12729883" y="2017059"/>
+          <a:chExt cx="1961029" cy="814916"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2185146"/>
+            <a:ext cx="1961029" cy="188860"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【itemID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2372873"/>
+            <a:ext cx="1961029" cy="459102"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動結果</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【resultID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>結果メッセージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【message : String】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>結果確率 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【resPercent : Decimal】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2017059"/>
+            <a:ext cx="1961029" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動結果パターンＭ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【ResultPatternM】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="99" name="グループ化 98"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11004175" y="750794"/>
+          <a:ext cx="2162737" cy="795617"/>
+          <a:chOff x="11598087" y="851647"/>
+          <a:chExt cx="2162737" cy="795617"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11598087" y="1016774"/>
+            <a:ext cx="2162737" cy="283108"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>キャラクタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【charaID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11598087" y="1299881"/>
+            <a:ext cx="2162737" cy="347383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>取得済迷言</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【meigenID : int</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11598088" y="851647"/>
+            <a:ext cx="1961029" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>取得済迷言Ｔ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【RefMeigenT】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623048</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="101" name="グループ化 100"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10854019" y="2348753"/>
+          <a:ext cx="1961029" cy="856129"/>
+          <a:chOff x="12729883" y="2017059"/>
+          <a:chExt cx="1961029" cy="856129"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2185146"/>
+            <a:ext cx="1961029" cy="369794"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>キャラクタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【charaID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2554941"/>
+            <a:ext cx="1961029" cy="318247"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>役職</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【jobID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2017059"/>
+            <a:ext cx="1961029" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>取得済役職Ｔ　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【RefJobT】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>126399</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="グループ化 108"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1131793" y="8045824"/>
+          <a:ext cx="2420471" cy="1090104"/>
+          <a:chOff x="1042147" y="5479676"/>
+          <a:chExt cx="1961029" cy="672353"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="正方形/長方形 109"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="5983941"/>
+            <a:ext cx="1961029" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="正方形/長方形 110"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="5647765"/>
+            <a:ext cx="1961029" cy="216746"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>キャラクタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> 【charaID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="5871146"/>
+            <a:ext cx="1961029" cy="196012"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【itemID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="5479676"/>
+            <a:ext cx="1961029" cy="168089"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム辞書Ｔ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【RefItemT】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -4144,7 +9586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4170,4 +9614,49 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -3896,15 +3896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>750794</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:colOff>437844</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:colOff>12021</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128067</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3913,8 +3913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="750794" y="3294528"/>
-          <a:ext cx="2577353" cy="2286001"/>
+          <a:off x="437844" y="4005301"/>
+          <a:ext cx="2567748" cy="2409266"/>
           <a:chOff x="1042147" y="3294529"/>
           <a:chExt cx="1961029" cy="2084294"/>
         </a:xfrm>
@@ -4400,6 +4400,91 @@
               <a:t>】</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>表示順 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【viewNo :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
@@ -4495,15 +4580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22414</xdr:rowOff>
+      <xdr:colOff>413031</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1837765</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>1701708</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4512,8 +4597,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="549088" y="1636061"/>
-          <a:ext cx="2330824" cy="1243851"/>
+          <a:off x="413031" y="2362842"/>
+          <a:ext cx="2322820" cy="1583229"/>
           <a:chOff x="3899647" y="784414"/>
           <a:chExt cx="1804147" cy="1243851"/>
         </a:xfrm>
@@ -4791,6 +4876,79 @@
               <a:t>【wallPaper : String】</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>表示順 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【viewNo :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
@@ -4864,16 +5022,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>997325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136095</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46447</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4882,10 +5040,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7933766" y="2274795"/>
-          <a:ext cx="1961029" cy="1109381"/>
+          <a:off x="9674702" y="2962359"/>
+          <a:ext cx="1951424" cy="1405533"/>
           <a:chOff x="12729883" y="2017059"/>
-          <a:chExt cx="1961029" cy="1109381"/>
+          <a:chExt cx="1961029" cy="1331557"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4993,7 +5151,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="12729883" y="2554941"/>
-            <a:ext cx="1961029" cy="571499"/>
+            <a:ext cx="1961029" cy="793675"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5094,14 +5252,78 @@
               </a:rPr>
               <a:t>【jobText : String】</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>表示順 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【viewNo :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -5178,15 +5400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>390640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>102452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1916204</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1780167</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112938</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5195,8 +5417,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="526677" y="593911"/>
-          <a:ext cx="2431674" cy="683560"/>
+          <a:off x="390640" y="1435952"/>
+          <a:ext cx="2423670" cy="718057"/>
           <a:chOff x="6783814" y="5423646"/>
           <a:chExt cx="1508539" cy="683560"/>
         </a:xfrm>
@@ -5464,16 +5686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1086970</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>168086</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>467449</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5482,10 +5704,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8023411" y="705970"/>
-          <a:ext cx="2375646" cy="862853"/>
+          <a:off x="9673084" y="1134996"/>
+          <a:ext cx="2374044" cy="1014931"/>
           <a:chOff x="14814177" y="649941"/>
-          <a:chExt cx="2375646" cy="862853"/>
+          <a:chExt cx="2375646" cy="965663"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5589,8 +5811,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14814177" y="1120588"/>
-            <a:ext cx="2375646" cy="392206"/>
+            <a:off x="14814177" y="1120587"/>
+            <a:ext cx="2375646" cy="495017"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5651,6 +5873,57 @@
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>【meigenText : String】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>表示順 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【viewNo :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5747,65 +6020,592 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1243852</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>21331</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857261</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
+      <xdr:colOff>1027752</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4247028" y="2139243"/>
-          <a:ext cx="2823883" cy="225197"/>
+          <a:off x="5102690" y="2126796"/>
+          <a:ext cx="2851098" cy="2000171"/>
+          <a:chOff x="6926035" y="3483428"/>
+          <a:chExt cx="2851098" cy="1990646"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6926035" y="3728293"/>
+            <a:ext cx="2830287" cy="184429"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>キャラクタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【charaID :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6931638" y="3483428"/>
+            <a:ext cx="2845495" cy="199305"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>キャラクター基本情報Ｔ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【CharaBaseT】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6926037" y="3908362"/>
+            <a:ext cx="2815079" cy="1565712"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>名前 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【charaName : String】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>生年月日 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【charaBirth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : Date</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>達成ポイント</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【point1 : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>達成ポイント</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【point2 : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>達成ポイント</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【point3: int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>現在の役職</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【jobID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5813,11 +6613,59 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>キャラクタ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>今日の迷言</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【meigenID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5825,616 +6673,25 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID 【charaID :</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> int32</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1243852</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4247028" y="1949824"/>
-          <a:ext cx="2846295" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>キャラクター基本情報Ｔ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【CharaBaseT】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71148</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4247029" y="2357148"/>
-          <a:ext cx="2823884" cy="1486470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>名前 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【charaName : String】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>生年月日 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【charaBirth</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> : Date</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>達成ポイント</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【point1 : int32】</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>達成ポイント</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【point2 : int32】</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>達成ポイント</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【point3: int32】</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>現在の役職</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【jobID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> : int32</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>今日の迷言</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【meigenID : int32】</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22410</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>879653</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>616322</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>17601</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>13614</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6443,10 +6700,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5726204" y="6813176"/>
-          <a:ext cx="3070412" cy="1591235"/>
+          <a:off x="5125082" y="6565852"/>
+          <a:ext cx="3070412" cy="2564548"/>
           <a:chOff x="5333999" y="5229785"/>
-          <a:chExt cx="1704416" cy="1325657"/>
+          <a:chExt cx="1704416" cy="2024503"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -6593,7 +6850,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="5333999" y="5550274"/>
-            <a:ext cx="1704415" cy="1005168"/>
+            <a:ext cx="1704415" cy="1704014"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6833,7 +7090,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>ID 【itemID : int32】</a:t>
+              <a:t>ID 【itemID : int32】 (FK)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6884,9 +7141,21 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【resultID : int32】</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:t>【resultID : int32】 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(FK)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -6903,16 +7172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>302560</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>384197</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>72844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>414619</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5608</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6921,8 +7190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3302935" y="6606987"/>
-          <a:ext cx="1359834" cy="275665"/>
+          <a:off x="9242447" y="7774487"/>
+          <a:ext cx="1363917" cy="286550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6959,7 +7228,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>行動セット</a:t>
+            <a:t>行動結果計算</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6968,16 +7237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>963707</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106472</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>392207</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1156622</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6986,8 +7255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7900148" y="3809999"/>
-          <a:ext cx="1355912" cy="268942"/>
+          <a:off x="3100043" y="2147527"/>
+          <a:ext cx="1050150" cy="274546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7033,16 +7302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>885265</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>477067</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1008530</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285764</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7051,8 +7320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6590740" y="1098177"/>
-          <a:ext cx="1351990" cy="275665"/>
+          <a:off x="11376388" y="894069"/>
+          <a:ext cx="1169412" cy="316966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7089,7 +7358,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>今日の格言入手</a:t>
+            <a:t>迷言入手</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7098,16 +7367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>44828</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>833228</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571491</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44902</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7116,10 +7385,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1143000" y="6533034"/>
-          <a:ext cx="2420471" cy="1344701"/>
-          <a:chOff x="1042147" y="5479676"/>
-          <a:chExt cx="1961029" cy="829383"/>
+          <a:off x="5078657" y="4385584"/>
+          <a:ext cx="2418870" cy="1415139"/>
+          <a:chOff x="1042147" y="5479675"/>
+          <a:chExt cx="1961029" cy="829384"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -7382,7 +7651,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="5479676"/>
+            <a:off x="1042147" y="5479675"/>
             <a:ext cx="1961029" cy="168089"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -7467,16 +7736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444247</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:rowOff>125666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>540297</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>58431</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7485,8 +7754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22411" y="5255559"/>
-          <a:ext cx="1355912" cy="268941"/>
+          <a:off x="3437818" y="5527702"/>
+          <a:ext cx="1347908" cy="286550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7532,16 +7801,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541870</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1233895</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>267772</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173700</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7550,8 +7819,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5715001" y="4381500"/>
-          <a:ext cx="2455335" cy="1344707"/>
+          <a:off x="10080477" y="6106413"/>
+          <a:ext cx="2447331" cy="1415144"/>
           <a:chOff x="5703794" y="3966882"/>
           <a:chExt cx="1949825" cy="1344707"/>
         </a:xfrm>
@@ -7866,97 +8135,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1053353</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>553874</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1165412</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4056529" y="4482353"/>
-          <a:ext cx="1355912" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ステージクリア時</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>算出</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>374579</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>153688</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7965,8 +8153,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8516471" y="4336676"/>
-          <a:ext cx="2554941" cy="1355912"/>
+          <a:off x="10092481" y="8021018"/>
+          <a:ext cx="2542134" cy="1426349"/>
           <a:chOff x="12729883" y="2017059"/>
           <a:chExt cx="1961029" cy="814916"/>
         </a:xfrm>
@@ -8309,7 +8497,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>行動結果パターンＭ </a:t>
+              <a:t>行動結果Ｍ </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -8321,7 +8509,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【ResultPatternM】</a:t>
+              <a:t>【ResultActionM】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -8331,16 +8519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76039</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>188100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>141673</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8349,8 +8537,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11004175" y="750794"/>
-          <a:ext cx="2162737" cy="795617"/>
+          <a:off x="12336075" y="1166212"/>
+          <a:ext cx="2153132" cy="839640"/>
           <a:chOff x="11598087" y="851647"/>
           <a:chExt cx="2162737" cy="795617"/>
         </a:xfrm>
@@ -8638,16 +8826,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>623048</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338115</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259673</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38420</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8656,8 +8844,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10854019" y="2348753"/>
-          <a:ext cx="1961029" cy="856129"/>
+          <a:off x="11917794" y="2939462"/>
+          <a:ext cx="1962629" cy="908958"/>
           <a:chOff x="12729883" y="2017059"/>
           <a:chExt cx="1961029" cy="856129"/>
         </a:xfrm>
@@ -8954,16 +9142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1246283</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>126399</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>126395</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8972,8 +9160,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1131793" y="8045824"/>
-          <a:ext cx="2420471" cy="1090104"/>
+          <a:off x="8172319" y="4562392"/>
+          <a:ext cx="2418870" cy="1142932"/>
           <a:chOff x="1042147" y="5479676"/>
           <a:chExt cx="1961029" cy="672353"/>
         </a:xfrm>
@@ -9166,7 +9354,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>アイテム</a:t>
+              <a:t>取得済アイテム</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -9253,7 +9441,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>アイテム辞書Ｔ</a:t>
+              <a:t>取得済アイテムＴ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -9292,6 +9480,1550 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541871</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>172581</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="カギ線コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+          <a:endCxn id="33" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8195493" y="7093386"/>
+          <a:ext cx="1884985" cy="957731"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>172582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>553875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>105692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="カギ線コネクタ 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="1"/>
+          <a:endCxn id="33" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8195493" y="8051118"/>
+          <a:ext cx="1896989" cy="994467"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>707589</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>108865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176909</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>122472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="円形吹き出し 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3701160" y="8518079"/>
+          <a:ext cx="2177142" cy="1605643"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 94167"/>
+            <a:gd name="adj2" fmla="val -51907"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>獲得ポイント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>獲得アイテム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>履歴に残すか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>991735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134477</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="カギ線コネクタ 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7917771" y="1474584"/>
+          <a:ext cx="1755313" cy="1865781"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>991736</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136096</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+          <a:endCxn id="29" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7917772" y="3334953"/>
+          <a:ext cx="1756931" cy="5412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>413030</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>437843</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47709</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="413030" y="2683766"/>
+          <a:ext cx="24813" cy="2765979"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -921291"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>833229</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>70631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857262</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>162835</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="カギ線コネクタ 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="1"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5078658" y="2465488"/>
+          <a:ext cx="24033" cy="2391811"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2296800"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12022</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>833229</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="カギ線コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="1"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3005593" y="4342260"/>
+          <a:ext cx="2073065" cy="1084868"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>367407</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>649156</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="グループ化 88"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12627443" y="4408713"/>
+          <a:ext cx="2322820" cy="1088573"/>
+          <a:chOff x="3899647" y="784414"/>
+          <a:chExt cx="1804147" cy="1037181"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3899647" y="952502"/>
+            <a:ext cx="1804147" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>おかん</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【okanID : int32】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3899647" y="1120590"/>
+            <a:ext cx="1804147" cy="701005"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>おかん一言 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【okanText : String】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>取得条件 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【condition</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : String</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3899647" y="784414"/>
+            <a:ext cx="1804147" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>おかんＭ　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【OkanM】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586699</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>958896</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102458</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="カギ線コネクタ 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6091626" y="5997188"/>
+          <a:ext cx="765129" cy="372197"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>789229</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32831</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="106" name="グループ化 105"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3782800" y="530679"/>
+          <a:ext cx="1951424" cy="530678"/>
+          <a:chOff x="12729883" y="2017059"/>
+          <a:chExt cx="1961029" cy="502747"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2185146"/>
+            <a:ext cx="1961029" cy="334660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>マスタバージョン</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729883" y="2017059"/>
+            <a:ext cx="1961029" cy="168088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>マスタ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>VerM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【masterVerM】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1238257</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1130201</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>68836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5483686" y="6068786"/>
+          <a:ext cx="1347908" cy="286550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ひま消費</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>467449</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76039</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>135264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="カギ線コネクタ 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12047128" y="1474584"/>
+          <a:ext cx="288947" cy="347966"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46447</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338115</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46371</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="カギ線コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="103" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11626126" y="3334953"/>
+          <a:ext cx="291668" cy="344525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1701708</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>154458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1780167</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112017</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="カギ線コネクタ 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2735851" y="2018637"/>
+          <a:ext cx="78459" cy="665130"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -291362"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571491</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>162836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1246283</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="カギ線コネクタ 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="112" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7497527" y="4857300"/>
+          <a:ext cx="674792" cy="537152"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>204122</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12819</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="正方形/長方形 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11103443" y="2667000"/>
+          <a:ext cx="1169412" cy="316966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>役職入手</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476264</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393819</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="正方形/長方形 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402300" y="4259036"/>
+          <a:ext cx="1169412" cy="316966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ひま入手</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>748393</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1891392</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="円形吹き出し 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="748393" y="6708321"/>
+          <a:ext cx="2177142" cy="1605643"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 23542"/>
+            <a:gd name="adj2" fmla="val -94280"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行動コードは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>個別で管理する？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行動はステージと連動させる？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="円形吹き出し 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13321393" y="5973535"/>
+          <a:ext cx="2177142" cy="1605643"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7083"/>
+            <a:gd name="adj2" fmla="val -90043"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ある条件達成時、おかんの一言を入手</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>639535</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="円形吹き出し 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6340928" y="353786"/>
+          <a:ext cx="1973035" cy="1156607"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78096"/>
+            <a:gd name="adj2" fmla="val -18727"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロジェクトの別の場所で管理できるか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9623,8 +11355,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -5023,15 +5023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>136095</xdr:colOff>
+      <xdr:colOff>122488</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>36823</xdr:rowOff>
+      <xdr:rowOff>36822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>46447</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:rowOff>136069</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5040,10 +5040,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9674702" y="2962359"/>
-          <a:ext cx="1951424" cy="1405533"/>
-          <a:chOff x="12729883" y="2017059"/>
-          <a:chExt cx="1961029" cy="1331557"/>
+          <a:off x="9661095" y="2962358"/>
+          <a:ext cx="2598941" cy="1514390"/>
+          <a:chOff x="12716209" y="2017059"/>
+          <a:chExt cx="1974703" cy="1434685"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5054,7 +5054,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="12729883" y="2185146"/>
-            <a:ext cx="1961029" cy="369794"/>
+            <a:ext cx="1937796" cy="480251"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5141,6 +5141,66 @@
               <a:t>】</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>最大ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【maxStageID : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
@@ -5150,7 +5210,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12729883" y="2554941"/>
+            <a:off x="12716209" y="2658069"/>
             <a:ext cx="1961029" cy="793675"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -8089,7 +8149,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【getItemID : int32】</a:t>
+              <a:t>【dropItemID : int32】</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -8125,7 +8185,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【percent : Decimal】</a:t>
+              <a:t>【dropPer : Double】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -8443,7 +8503,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【resPercent : Decimal】</a:t>
+              <a:t>【resPer : Decimal】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -8826,14 +8886,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>338115</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215638</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>13926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>259673</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137196</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38420</xdr:rowOff>
     </xdr:to>
@@ -8844,7 +8904,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11917794" y="2939462"/>
+          <a:off x="13156031" y="2939462"/>
           <a:ext cx="1962629" cy="908958"/>
           <a:chOff x="12729883" y="2017059"/>
           <a:chExt cx="1961029" cy="856129"/>
@@ -9584,87 +9644,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>707589</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>108865</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>176909</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>122472</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="円形吹き出し 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3701160" y="8518079"/>
-          <a:ext cx="2177142" cy="1605643"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 94167"/>
-            <a:gd name="adj2" fmla="val -51907"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>獲得ポイント</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>獲得アイテム</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>履歴に残すか</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>991735</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -9715,13 +9694,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>991736</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>55632</xdr:rowOff>
+      <xdr:rowOff>61044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>136096</xdr:colOff>
+      <xdr:colOff>140486</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>61044</xdr:rowOff>
+      <xdr:rowOff>113928</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9732,9 +9711,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7917772" y="3334953"/>
-          <a:ext cx="1756931" cy="5412"/>
+        <a:xfrm rot="10800000">
+          <a:off x="7917772" y="3340365"/>
+          <a:ext cx="1761321" cy="52884"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10081,57 +10060,6 @@
               <a:t>【okanText : String】</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>取得条件 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【condition</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> : String</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
@@ -10251,195 +10179,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>789229</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>32831</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="106" name="グループ化 105"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3782800" y="530679"/>
-          <a:ext cx="1951424" cy="530678"/>
-          <a:chOff x="12729883" y="2017059"/>
-          <a:chExt cx="1961029" cy="502747"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12729883" y="2185146"/>
-            <a:ext cx="1961029" cy="334660"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>マスタバージョン</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12729883" y="2017059"/>
-            <a:ext cx="1961029" cy="168088"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="0">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>マスタ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>VerM</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【masterVerM】</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -10557,13 +10296,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>46447</xdr:colOff>
+      <xdr:colOff>649780</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>55632</xdr:rowOff>
+      <xdr:rowOff>113928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>338115</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215638</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>46371</xdr:rowOff>
     </xdr:to>
@@ -10577,8 +10316,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11626126" y="3334953"/>
-          <a:ext cx="291668" cy="344525"/>
+          <a:off x="12229459" y="3393249"/>
+          <a:ext cx="926572" cy="286229"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10699,16 +10438,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>204122</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13621</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12819</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>58430</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502676</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10717,8 +10456,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11103443" y="2667000"/>
-          <a:ext cx="1169412" cy="316966"/>
+          <a:off x="12273657" y="2612572"/>
+          <a:ext cx="1169412" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10822,205 +10561,6 @@
             </a:rPr>
             <a:t>ひま入手</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>748393</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1891392</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="円形吹き出し 117"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="748393" y="6708321"/>
-          <a:ext cx="2177142" cy="1605643"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 23542"/>
-            <a:gd name="adj2" fmla="val -94280"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>行動コードは</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>個別で管理する？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>行動はステージと連動させる？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="円形吹き出し 118"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13321393" y="5973535"/>
-          <a:ext cx="2177142" cy="1605643"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -7083"/>
-            <a:gd name="adj2" fmla="val -90043"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ある条件達成時、おかんの一言を入手</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>136070</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="円形吹き出し 119"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6340928" y="353786"/>
-          <a:ext cx="1973035" cy="1156607"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -78096"/>
-            <a:gd name="adj2" fmla="val -18727"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>プロジェクトの別の場所で管理できるか？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11319,7 +10859,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11356,7 +10896,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -3897,14 +3897,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>437844</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18408</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12021</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>128067</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3913,10 +3913,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="437844" y="4005301"/>
-          <a:ext cx="2567748" cy="2409266"/>
+          <a:off x="437844" y="3964480"/>
+          <a:ext cx="2567748" cy="3655520"/>
           <a:chOff x="1042147" y="3294529"/>
-          <a:chExt cx="1961029" cy="2084294"/>
+          <a:chExt cx="1961029" cy="3162448"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4035,7 +4035,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1042147" y="3709459"/>
-            <a:ext cx="1961029" cy="1669364"/>
+            <a:ext cx="1961029" cy="2747518"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4114,7 +4114,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>行動コード</a:t>
+              <a:t>行動</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
@@ -4126,7 +4126,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> 【actID : int32】</a:t>
+              <a:t>ID 【actID : int32】</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -4262,7 +4262,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【image : String】</a:t>
+              <a:t>【imageItem : String】</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -4475,6 +4475,502 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>初期</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【initX : int32】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>初期</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【initY : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最少</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【minX :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最大</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【maxX :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最少</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【minY :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最大</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【maxY :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -4560,7 +5056,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> 【ItemM】</a:t>
+              <a:t> 【M_Item】</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -4861,7 +5357,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>壁紙ファイル名 </a:t>
+              <a:t>背景ファイル名 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -4873,7 +5369,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【wallPaper : String】</a:t>
+              <a:t>【ImageBack : String】</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -5012,7 +5508,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【StageM】</a:t>
+              <a:t>【M_Stage】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5449,7 +5945,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【JobM】</a:t>
+              <a:t>【M_Job】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5736,7 +6232,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【RefStageT】</a:t>
+              <a:t>【T_RefStage】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5826,7 +6322,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>迷言</a:t>
+              <a:t>格言</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -5850,7 +6346,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> 【meigenID : int32】</a:t>
+              <a:t> 【kakugenID : int32】</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -5920,7 +6416,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>迷言内容 </a:t>
+              <a:t>格言内容 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -5932,7 +6428,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【meigenText : String】</a:t>
+              <a:t>【kakugenText : String】</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6028,16 +6524,16 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>迷言</a:t>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>格言</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
@@ -6061,7 +6557,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> 【MeigenM】</a:t>
+              <a:t> 【M_Kakugen】</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -6262,7 +6758,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【CharaBaseT】</a:t>
+              <a:t>【T_CharaBase】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6888,17 +7384,20 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>行動履歴Ｔ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
+              <a:t>行動履歴Ｔ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【T_ActionResult】</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7777,7 +8276,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【GetItemT】</a:t>
+              <a:t>【T_GetItem】</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -7946,7 +8445,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【DropItemM】</a:t>
+              <a:t>【M_DropItem】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -8569,7 +9068,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【ResultActionM】</a:t>
+              <a:t>【M_ResultAction】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -8586,7 +9085,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>188100</xdr:colOff>
+      <xdr:colOff>639536</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>141673</xdr:rowOff>
     </xdr:to>
@@ -8598,7 +9097,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="12336075" y="1166212"/>
-          <a:ext cx="2153132" cy="839640"/>
+          <a:ext cx="2604568" cy="839640"/>
           <a:chOff x="11598087" y="851647"/>
           <a:chExt cx="2162737" cy="795617"/>
         </a:xfrm>
@@ -8789,7 +9288,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【meigenID : int</a:t>
+              <a:t>【KakugenID : int</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -8864,7 +9363,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>取得済迷言Ｔ </a:t>
+              <a:t>取得済格言Ｔ </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -8876,7 +9375,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【RefMeigenT】</a:t>
+              <a:t>【T_RefKakugen】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -9192,7 +9691,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【RefJobT】</a:t>
+              <a:t>【T_RefJob】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -9525,7 +10024,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【RefItemT】</a:t>
+              <a:t>【T_RefItem】</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -9746,8 +10245,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>437843</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47709</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9760,7 +10259,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
           <a:off x="413030" y="2683766"/>
-          <a:ext cx="24813" cy="2765979"/>
+          <a:ext cx="24813" cy="3348285"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9844,14 +10343,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12022</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1581</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>833229</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>25092</xdr:rowOff>
+      <xdr:rowOff>25093</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9863,8 +10362,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3005593" y="4342260"/>
-          <a:ext cx="2073065" cy="1084868"/>
+          <a:off x="3005593" y="4301440"/>
+          <a:ext cx="2073065" cy="1125689"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10123,7 +10622,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【OkanM】</a:t>
+              <a:t>【M_Okan】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -10566,6 +11065,419 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104856</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>136873</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="グループ化 78"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="530679" y="7905750"/>
+          <a:ext cx="2567748" cy="2409266"/>
+          <a:chOff x="1042147" y="3294529"/>
+          <a:chExt cx="1961029" cy="2084294"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="3462617"/>
+            <a:ext cx="1961029" cy="246842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>行動</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>【itemID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> :  int32 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="3709459"/>
+            <a:ext cx="1961029" cy="1669364"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動名称</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【actName : String】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動ファイル名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【imageAct : String】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>方向</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【way : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="3294529"/>
+            <a:ext cx="1961029" cy="168089"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Ｍ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【M_Action】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10896,7 +11808,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -10559,6 +10559,33 @@
               <a:t>【okanText : String】</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ログイン日数 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【loginDays : int32】</a:t>
+            </a:r>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
@@ -11170,7 +11197,7 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>【itemID</a:t>
+              <a:t>【actID</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
@@ -11808,7 +11835,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -3897,14 +3897,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>437844</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>154480</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12021</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3913,8 +3913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="437844" y="3964480"/>
-          <a:ext cx="2567748" cy="3655520"/>
+          <a:off x="437844" y="4209408"/>
+          <a:ext cx="2567748" cy="2811877"/>
           <a:chOff x="1042147" y="3294529"/>
           <a:chExt cx="1961029" cy="3162448"/>
         </a:xfrm>
@@ -4466,520 +4466,6 @@
               </a:rPr>
               <a:t>】</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>初期</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>X</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【initX : int32】</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>初期</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Y</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> 【initY : int32】</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>可動最少</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>X</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【minX :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> int32</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>可動最大</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>X</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【maxX :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> int32</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>可動最少</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Y</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【minY :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> int32</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>可動最大</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Y</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【maxY :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> int32</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -10240,13 +9726,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>413030</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>112016</xdr:rowOff>
+      <xdr:rowOff>112017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>437843</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99337</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43992</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10258,8 +9744,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="413030" y="2683766"/>
-          <a:ext cx="24813" cy="3348285"/>
+          <a:off x="413030" y="2683767"/>
+          <a:ext cx="24813" cy="3116046"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10343,14 +9829,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12022</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137654</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>833229</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>25093</xdr:rowOff>
+      <xdr:rowOff>25092</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10362,8 +9848,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3005593" y="4301440"/>
-          <a:ext cx="2073065" cy="1125689"/>
+          <a:off x="3005593" y="4468602"/>
+          <a:ext cx="2073065" cy="958526"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -11095,15 +10581,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>530679</xdr:colOff>
+      <xdr:colOff>394607</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104856</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>136873</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1928212</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11112,8 +10598,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="530679" y="7905750"/>
-          <a:ext cx="2567748" cy="2409266"/>
+          <a:off x="394607" y="7892143"/>
+          <a:ext cx="2567748" cy="2707821"/>
           <a:chOff x="1042147" y="3294529"/>
           <a:chExt cx="1961029" cy="2084294"/>
         </a:xfrm>
@@ -11126,7 +10612,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1042147" y="3462617"/>
-            <a:ext cx="1961029" cy="246842"/>
+            <a:ext cx="1961029" cy="375211"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -11164,6 +10650,32 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【stageID : int32】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
               <a:rPr lang="ja-JP" altLang="en-US">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -11217,12 +10729,6 @@
               </a:rPr>
               <a:t>】</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -11233,8 +10739,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="3709459"/>
-            <a:ext cx="1961029" cy="1669364"/>
+            <a:off x="1042147" y="3837828"/>
+            <a:ext cx="1961029" cy="1540995"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -11297,34 +10803,17 @@
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>行動ファイル名</a:t>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>初期</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
@@ -11336,38 +10825,52 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> 【imageAct : String】</a:t>
-            </a:r>
+              <a:t>X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【initX : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>方向</a:t>
+            <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>初期</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
@@ -11379,7 +10882,399 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【way : int32】</a:t>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【initY : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最少</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【minX :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最大</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【maxX :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最少</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【minY :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最大</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【maxY :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:solidFill>
@@ -11503,6 +11398,491 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1928213</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="グループ化 92"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="394608" y="10804072"/>
+          <a:ext cx="2567748" cy="1238251"/>
+          <a:chOff x="1042147" y="3294529"/>
+          <a:chExt cx="1961029" cy="953120"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="正方形/長方形 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="3462617"/>
+            <a:ext cx="1961029" cy="375211"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ステージ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID 【stageID : int32】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>行動</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>【actID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> :  int32 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="3837829"/>
+            <a:ext cx="1961029" cy="409820"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動ファイル名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【imageAct : String】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>方向</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【way : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="正方形/長方形 95"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1042147" y="3294529"/>
+            <a:ext cx="1961029" cy="168089"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動画像</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Ｍ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【M_ActionImage】</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1928212</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>121923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1928213</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>26672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="カギ線コネクタ 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="3"/>
+          <a:endCxn id="94" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962355" y="8354244"/>
+          <a:ext cx="1" cy="2911928"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22860100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12021</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>121923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="81" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="394607" y="5799813"/>
+          <a:ext cx="2610985" cy="2554431"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8755"/>
+            <a:gd name="adj2" fmla="val 69138"/>
+            <a:gd name="adj3" fmla="val 108755"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11834,8 +12214,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -3896,15 +3896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>437844</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>45622</xdr:rowOff>
+      <xdr:colOff>437843</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>12021</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>122467</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3913,10 +3913,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="437844" y="4209408"/>
-          <a:ext cx="2567748" cy="2811877"/>
-          <a:chOff x="1042147" y="3294529"/>
-          <a:chExt cx="1961029" cy="3162448"/>
+          <a:off x="437843" y="4114162"/>
+          <a:ext cx="2963942" cy="2825484"/>
+          <a:chOff x="1042147" y="3187404"/>
+          <a:chExt cx="1970073" cy="3177751"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3927,7 +3927,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1042147" y="3462617"/>
-            <a:ext cx="1961029" cy="246842"/>
+            <a:ext cx="1961029" cy="392746"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4034,8 +4034,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="3709459"/>
-            <a:ext cx="1961029" cy="2747518"/>
+            <a:off x="1042147" y="3855363"/>
+            <a:ext cx="1961029" cy="2509792"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4476,7 +4476,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="3294529"/>
+            <a:off x="1051191" y="3187404"/>
             <a:ext cx="1961029" cy="168089"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4562,15 +4562,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>413031</xdr:colOff>
+      <xdr:colOff>413030</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>144878</xdr:rowOff>
+      <xdr:rowOff>90448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1701708</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4579,10 +4579,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="413031" y="2362842"/>
-          <a:ext cx="2322820" cy="1583229"/>
-          <a:chOff x="3899647" y="784414"/>
-          <a:chExt cx="1804147" cy="1243851"/>
+          <a:off x="413030" y="2308412"/>
+          <a:ext cx="2879899" cy="1637658"/>
+          <a:chOff x="3899647" y="741652"/>
+          <a:chExt cx="1804148" cy="1286613"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4665,7 +4665,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3899647" y="1120590"/>
+            <a:off x="3899648" y="1120590"/>
             <a:ext cx="1804147" cy="907675"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4738,7 +4738,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【stageName】</a:t>
+              <a:t>【stageName : String】</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -4940,7 +4940,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3899647" y="784414"/>
+            <a:off x="3899647" y="741652"/>
             <a:ext cx="1804147" cy="168088"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5005,15 +5005,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>122488</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>36822</xdr:rowOff>
+      <xdr:colOff>108883</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>136069</xdr:rowOff>
+      <xdr:colOff>13610</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5022,10 +5022,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9661095" y="2962358"/>
-          <a:ext cx="2598941" cy="1514390"/>
-          <a:chOff x="12716209" y="2017059"/>
-          <a:chExt cx="1974703" cy="1434685"/>
+          <a:off x="9647490" y="2799074"/>
+          <a:ext cx="2626156" cy="1881784"/>
+          <a:chOff x="12716209" y="1959360"/>
+          <a:chExt cx="1995381" cy="1595909"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5035,8 +5035,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12729883" y="2185146"/>
-            <a:ext cx="1937796" cy="480251"/>
+            <a:off x="12729883" y="2135851"/>
+            <a:ext cx="1937796" cy="619781"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5192,7 +5192,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12716209" y="2658069"/>
+            <a:off x="12716209" y="2761594"/>
             <a:ext cx="1961029" cy="793675"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5377,7 +5377,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12729883" y="2017059"/>
+            <a:off x="12750561" y="1959360"/>
             <a:ext cx="1961029" cy="168088"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5444,13 +5444,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>390640</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>102452</xdr:rowOff>
+      <xdr:rowOff>48025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1780167</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>112938</xdr:rowOff>
+      <xdr:rowOff>112939</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5459,10 +5459,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="390640" y="1435952"/>
-          <a:ext cx="2423670" cy="718057"/>
-          <a:chOff x="6783814" y="5423646"/>
-          <a:chExt cx="1508539" cy="683560"/>
+          <a:off x="390640" y="1381525"/>
+          <a:ext cx="2423670" cy="772485"/>
+          <a:chOff x="6783814" y="5371833"/>
+          <a:chExt cx="1508539" cy="735373"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5664,7 +5664,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6783814" y="5423646"/>
+            <a:off x="6783814" y="5371833"/>
             <a:ext cx="1501588" cy="168089"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6063,15 +6063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>857261</xdr:colOff>
+      <xdr:colOff>857262</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>4083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1027752</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>140074</xdr:rowOff>
+      <xdr:rowOff>140075</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6080,10 +6080,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5102690" y="2126796"/>
-          <a:ext cx="2851098" cy="2000171"/>
-          <a:chOff x="6926035" y="3483428"/>
-          <a:chExt cx="2851098" cy="1990646"/>
+          <a:off x="5102691" y="2045154"/>
+          <a:ext cx="2851097" cy="2081814"/>
+          <a:chOff x="6926036" y="3402174"/>
+          <a:chExt cx="2851097" cy="2071900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -6093,8 +6093,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6926035" y="3728293"/>
-            <a:ext cx="2830287" cy="184429"/>
+            <a:off x="6926036" y="3655416"/>
+            <a:ext cx="2816666" cy="270847"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6190,7 +6190,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6931638" y="3483428"/>
+            <a:off x="6931638" y="3402174"/>
             <a:ext cx="2845495" cy="199305"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -7217,16 +7217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>384197</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>72844</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166484</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>387400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>5608</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>169687</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>5609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7235,7 +7235,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9242447" y="7774487"/>
+          <a:off x="8344377" y="7420702"/>
           <a:ext cx="1363917" cy="286550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7283,15 +7283,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>106472</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106456</xdr:rowOff>
+      <xdr:colOff>555508</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1156622</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>353800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7300,7 +7300,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3100043" y="2147527"/>
+          <a:off x="3549079" y="1807349"/>
           <a:ext cx="1050150" cy="274546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7847,15 +7847,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>541870</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>173699</xdr:rowOff>
+      <xdr:colOff>65620</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>78449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>267772</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>173700</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>78450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7864,8 +7864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10080477" y="6106413"/>
-          <a:ext cx="2447331" cy="1415144"/>
+          <a:off x="9604227" y="8841449"/>
+          <a:ext cx="2846309" cy="1415144"/>
           <a:chOff x="5703794" y="3966882"/>
           <a:chExt cx="1949825" cy="1344707"/>
         </a:xfrm>
@@ -8181,15 +8181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>553874</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142482</xdr:rowOff>
+      <xdr:colOff>64018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374579</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>153688</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>565080</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122468</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8198,10 +8198,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10092481" y="8021018"/>
-          <a:ext cx="2542134" cy="1426349"/>
+          <a:off x="9602625" y="6633092"/>
+          <a:ext cx="2542134" cy="1721697"/>
           <a:chOff x="12729883" y="2017059"/>
-          <a:chExt cx="1961029" cy="814916"/>
+          <a:chExt cx="1961029" cy="983657"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -8331,7 +8331,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="12729883" y="2372873"/>
-            <a:ext cx="1961029" cy="459102"/>
+            <a:ext cx="1961029" cy="627843"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8554,7 +8554,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【M_ResultAction】</a:t>
+              <a:t>【M_ActionResult】</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -9187,16 +9187,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1246283</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44821</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76068</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>372225</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>126395</xdr:rowOff>
+      <xdr:colOff>453867</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>126392</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9205,7 +9205,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8172319" y="4562392"/>
+          <a:off x="8253961" y="4916174"/>
           <a:ext cx="2418870" cy="1142932"/>
           <a:chOff x="1042147" y="5479676"/>
           <a:chExt cx="1961029" cy="672353"/>
@@ -9350,7 +9350,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="5871146"/>
+            <a:off x="1042147" y="5863141"/>
             <a:ext cx="1961029" cy="196012"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -9525,106 +9525,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>99315</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541871</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>172581</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="カギ線コネクタ 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="1"/>
-          <a:endCxn id="33" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="8195493" y="7093386"/>
-          <a:ext cx="1884985" cy="957731"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>172582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>553875</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>105692</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="カギ線コネクタ 34"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="85" idx="1"/>
-          <a:endCxn id="33" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="8195493" y="8051118"/>
-          <a:ext cx="1896989" cy="994467"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9677,15 +9577,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>991736</xdr:colOff>
+      <xdr:colOff>991735</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>61044</xdr:rowOff>
+      <xdr:rowOff>61045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>140486</xdr:colOff>
+      <xdr:colOff>126878</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>113928</xdr:rowOff>
+      <xdr:rowOff>93259</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9697,8 +9597,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7917772" y="3340365"/>
-          <a:ext cx="1761321" cy="52884"/>
+          <a:off x="7917771" y="3340366"/>
+          <a:ext cx="1747714" cy="32214"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9724,15 +9624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>413030</xdr:colOff>
+      <xdr:colOff>413029</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>112017</xdr:rowOff>
+      <xdr:rowOff>112016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>437843</xdr:colOff>
+      <xdr:colOff>437842</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>43992</xdr:rowOff>
+      <xdr:rowOff>68038</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9744,8 +9644,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="413030" y="2683767"/>
-          <a:ext cx="24813" cy="3116046"/>
+          <a:off x="413029" y="2683766"/>
+          <a:ext cx="24813" cy="3140093"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9776,9 +9676,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>833229</xdr:colOff>
+      <xdr:colOff>833228</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>70631</xdr:rowOff>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -9796,12 +9696,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5078658" y="2465488"/>
-          <a:ext cx="24033" cy="2391811"/>
+          <a:off x="5078657" y="2435678"/>
+          <a:ext cx="24034" cy="2421621"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 2296800"/>
+            <a:gd name="adj1" fmla="val 1051153"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9828,9 +9728,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>12022</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127923</xdr:rowOff>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -9848,8 +9748,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3005593" y="4468602"/>
-          <a:ext cx="2073065" cy="958526"/>
+          <a:off x="3388179" y="4533470"/>
+          <a:ext cx="1690479" cy="893658"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10308,9 +10208,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>649780</xdr:colOff>
+      <xdr:colOff>636173</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>113928</xdr:rowOff>
+      <xdr:rowOff>93259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -10328,8 +10228,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12229459" y="3393249"/>
-          <a:ext cx="926572" cy="286229"/>
+          <a:off x="12215852" y="3372580"/>
+          <a:ext cx="940179" cy="306898"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10355,13 +10255,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1701708</xdr:colOff>
+      <xdr:colOff>1780167</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>154458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1780167</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>112017</xdr:rowOff>
     </xdr:to>
@@ -10374,13 +10274,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2735851" y="2018637"/>
-          <a:ext cx="78459" cy="665130"/>
+        <a:xfrm>
+          <a:off x="2814310" y="2018637"/>
+          <a:ext cx="478617" cy="665130"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -291362"/>
+            <a:gd name="adj1" fmla="val 147763"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -10409,10 +10309,10 @@
       <xdr:rowOff>162836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1246283</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>169309</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76068</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155698</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10425,7 +10325,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7497527" y="4857300"/>
-          <a:ext cx="674792" cy="537152"/>
+          <a:ext cx="756434" cy="877327"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10612,7 +10512,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1042147" y="3462617"/>
-            <a:ext cx="1961029" cy="375211"/>
+            <a:ext cx="1961029" cy="575555"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10739,8 +10639,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="3837828"/>
-            <a:ext cx="1961029" cy="1540995"/>
+            <a:off x="1042147" y="4006750"/>
+            <a:ext cx="1961029" cy="1372073"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10849,7 +10749,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>【initX : int32】</a:t>
+              <a:t>【firstX : int32】</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:solidFill>
@@ -10906,7 +10806,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> 【initY : int32】</a:t>
+              <a:t> 【firstY : int32】</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:solidFill>
@@ -11402,16 +11302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>394608</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367394</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>176887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1928213</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>95252</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254535</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>99320</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11420,10 +11320,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="394608" y="10804072"/>
-          <a:ext cx="2567748" cy="1238251"/>
+          <a:off x="4612823" y="9814826"/>
+          <a:ext cx="2567748" cy="1523994"/>
           <a:chOff x="1042147" y="3294529"/>
-          <a:chExt cx="1961029" cy="953120"/>
+          <a:chExt cx="1961029" cy="1174210"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -11433,8 +11333,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="3462617"/>
-            <a:ext cx="1961029" cy="375211"/>
+            <a:off x="1042147" y="3462616"/>
+            <a:ext cx="1961029" cy="591517"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -11561,7 +11461,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="3837829"/>
+            <a:off x="1042147" y="4058919"/>
             <a:ext cx="1961029" cy="409820"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -11784,34 +11684,126 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1928212</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>121923</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17599</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>103689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1928213</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>26672</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64018</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>172581</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="カギ線コネクタ 2"/>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="3"/>
-          <a:endCxn id="94" idx="3"/>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8195492" y="7805332"/>
+          <a:ext cx="1407133" cy="245785"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17599</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>172581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>65620</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>13590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="カギ線コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="51" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2962355" y="8354244"/>
-          <a:ext cx="1" cy="2911928"/>
+          <a:off x="8195492" y="8051117"/>
+          <a:ext cx="1408735" cy="1786830"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 22860100000"/>
-          </a:avLst>
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1928212</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>75169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367394</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>61810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="3"/>
+          <a:endCxn id="94" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962355" y="8484383"/>
+          <a:ext cx="1650468" cy="1932463"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -11837,36 +11829,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
+      <xdr:colOff>394606</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>43992</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>12021</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>121923</xdr:rowOff>
+      <xdr:colOff>394606</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>75169</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvPr id="71" name="カギ線コネクタ 70"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="81" idx="1"/>
+          <a:stCxn id="81" idx="1"/>
+          <a:endCxn id="7" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="394607" y="5799813"/>
-          <a:ext cx="2610985" cy="2554431"/>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="394606" y="5823861"/>
+          <a:ext cx="2993571" cy="2660522"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -8755"/>
-            <a:gd name="adj2" fmla="val 69138"/>
-            <a:gd name="adj3" fmla="val 108755"/>
+            <a:gd name="adj1" fmla="val -7636"/>
+            <a:gd name="adj2" fmla="val 36057"/>
+            <a:gd name="adj3" fmla="val 107636"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -12214,8 +12209,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12247,7 +12242,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -3903,8 +3903,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>122467</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3914,9 +3914,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="437843" y="4114162"/>
-          <a:ext cx="2963942" cy="2825484"/>
+          <a:ext cx="2963942" cy="4186195"/>
           <a:chOff x="1042147" y="3187404"/>
-          <a:chExt cx="1970073" cy="3177751"/>
+          <a:chExt cx="1970073" cy="4708108"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4035,7 +4035,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1042147" y="3855363"/>
-            <a:ext cx="1961029" cy="2509792"/>
+            <a:ext cx="1961029" cy="4040149"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4101,41 +4101,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>行動</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ID 【actID : int32】</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:endParaRPr>
           </a:p>
           <a:p>
@@ -4466,6 +4431,558 @@
               </a:rPr>
               <a:t>】</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アニメーション区分 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【animation :  int32】</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>初期</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【firstX : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>初期</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【firstY : int32】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最少</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【minX :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最大</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【maxX :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最少</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【minY :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可動最大</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>座標</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【maxY :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -9631,8 +10148,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>437842</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>68038</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9645,7 +10162,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
           <a:off x="413029" y="2683766"/>
-          <a:ext cx="24813" cy="3140093"/>
+          <a:ext cx="24813" cy="3820450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10481,38 +10998,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>557895</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1928212</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132072</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>31285</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="79" name="グループ化 78"/>
+        <xdr:cNvPr id="93" name="グループ化 92"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="394607" y="7892143"/>
-          <a:ext cx="2567748" cy="2707821"/>
+          <a:off x="557895" y="9216111"/>
+          <a:ext cx="2567748" cy="1523995"/>
           <a:chOff x="1042147" y="3294529"/>
-          <a:chExt cx="1961029" cy="2084294"/>
+          <a:chExt cx="1961029" cy="1174211"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+          <xdr:cNvPr id="94" name="正方形/長方形 93"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1042147" y="3462617"/>
-            <a:ext cx="1961029" cy="575555"/>
+            <a:ext cx="1961029" cy="394912"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10549,641 +11066,6 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ステージ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ID 【stageID : int32】</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>行動</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>【actID</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> :  int32 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="正方形/長方形 86"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1042147" y="4006750"/>
-            <a:ext cx="1961029" cy="1372073"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>行動名称</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> 【actName : String】</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>初期</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>X</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【firstX : int32】</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>初期</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Y</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> 【firstY : int32】</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>可動最少</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>X</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【minX :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> int32</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>可動最大</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>X</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【maxX :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> int32</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>可動最少</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Y</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【minY :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> int32</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>可動最大</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Y</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>座標</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【maxY :</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> int32</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
             <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
               <a:lnSpc>
                 <a:spcPct val="100000"/>
@@ -11201,256 +11083,84 @@
               <a:tabLst/>
               <a:defRPr/>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【itemID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> :  int32 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="正方形/長方形 87"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1042147" y="3294529"/>
-            <a:ext cx="1961029" cy="168089"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="0">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>行動</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ｍ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> 【M_Action】</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>367394</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>176887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>254535</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>99320</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="93" name="グループ化 92"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4612823" y="9814826"/>
-          <a:ext cx="2567748" cy="1523994"/>
-          <a:chOff x="1042147" y="3294529"/>
-          <a:chExt cx="1961029" cy="1174210"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="正方形/長方形 93"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1042147" y="3462616"/>
-            <a:ext cx="1961029" cy="591517"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ステージ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ID 【stageID : int32】</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>行動</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>【actID</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> :  int32 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>】</a:t>
-            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -11461,8 +11171,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="4058919"/>
-            <a:ext cx="1961029" cy="409820"/>
+            <a:off x="1042147" y="3857529"/>
+            <a:ext cx="1961029" cy="611211"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -11778,85 +11488,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1928212</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>75169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>367394</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>61810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="3"/>
-          <a:endCxn id="94" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2962355" y="8484383"/>
-          <a:ext cx="1650468" cy="1932463"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>394606</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:colOff>557894</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>394606</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>75169</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>43082</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="71" name="カギ線コネクタ 70"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="1"/>
+          <a:stCxn id="94" idx="1"/>
           <a:endCxn id="7" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="394606" y="5823861"/>
-          <a:ext cx="2993571" cy="2660522"/>
+          <a:off x="557894" y="6504216"/>
+          <a:ext cx="2830283" cy="3186330"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -7636"/>
-            <a:gd name="adj2" fmla="val 36057"/>
-            <a:gd name="adj3" fmla="val 107636"/>
+            <a:gd name="adj1" fmla="val -8077"/>
+            <a:gd name="adj2" fmla="val 25836"/>
+            <a:gd name="adj3" fmla="val 108077"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -12210,7 +11870,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12242,7 +11902,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -3913,8 +3913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="437843" y="4114162"/>
-          <a:ext cx="2963942" cy="4186195"/>
+          <a:off x="437843" y="3994419"/>
+          <a:ext cx="2970746" cy="4055567"/>
           <a:chOff x="1042147" y="3187404"/>
           <a:chExt cx="1970073" cy="4708108"/>
         </a:xfrm>
@@ -5096,8 +5096,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="413030" y="2308412"/>
-          <a:ext cx="2879899" cy="1637658"/>
+          <a:off x="413030" y="2243098"/>
+          <a:ext cx="2886703" cy="1588672"/>
           <a:chOff x="3899647" y="741652"/>
           <a:chExt cx="1804148" cy="1286613"/>
         </a:xfrm>
@@ -5539,8 +5539,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9647490" y="2799074"/>
-          <a:ext cx="2626156" cy="1881784"/>
+          <a:off x="9662458" y="2717431"/>
+          <a:ext cx="2647927" cy="1827356"/>
           <a:chOff x="12716209" y="1959360"/>
           <a:chExt cx="1995381" cy="1595909"/>
         </a:xfrm>
@@ -5976,8 +5976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="390640" y="1381525"/>
-          <a:ext cx="2423670" cy="772485"/>
+          <a:off x="390640" y="1343425"/>
+          <a:ext cx="2427752" cy="750714"/>
           <a:chOff x="6783814" y="5371833"/>
           <a:chExt cx="1508539" cy="735373"/>
         </a:xfrm>
@@ -6263,8 +6263,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9673084" y="1134996"/>
-          <a:ext cx="2374044" cy="1014931"/>
+          <a:off x="9688052" y="1107782"/>
+          <a:ext cx="2390372" cy="982274"/>
           <a:chOff x="14814177" y="649941"/>
           <a:chExt cx="2375646" cy="965663"/>
         </a:xfrm>
@@ -6597,8 +6597,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5102691" y="2045154"/>
-          <a:ext cx="2851097" cy="2081814"/>
+          <a:off x="5105412" y="1985283"/>
+          <a:ext cx="2856540" cy="2021942"/>
           <a:chOff x="6926036" y="3402174"/>
           <a:chExt cx="2851097" cy="2071900"/>
         </a:xfrm>
@@ -7259,8 +7259,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5125082" y="6565852"/>
-          <a:ext cx="3070412" cy="2564548"/>
+          <a:off x="5127803" y="6369909"/>
+          <a:ext cx="3071773" cy="2482905"/>
           <a:chOff x="5333999" y="5229785"/>
           <a:chExt cx="1704416" cy="2024503"/>
         </a:xfrm>
@@ -7947,8 +7947,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5078657" y="4385584"/>
-          <a:ext cx="2418870" cy="1415139"/>
+          <a:off x="5081378" y="4254955"/>
+          <a:ext cx="2424313" cy="1371597"/>
           <a:chOff x="1042147" y="5479675"/>
           <a:chExt cx="1961029" cy="829384"/>
         </a:xfrm>
@@ -8364,15 +8364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65620</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>78449</xdr:rowOff>
+      <xdr:colOff>151345</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>78450</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>97500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8381,8 +8381,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9604227" y="8841449"/>
-          <a:ext cx="2846309" cy="1415144"/>
+          <a:off x="9704920" y="8422349"/>
+          <a:ext cx="2868080" cy="1371601"/>
           <a:chOff x="5703794" y="3966882"/>
           <a:chExt cx="1949825" cy="1344707"/>
         </a:xfrm>
@@ -8715,8 +8715,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9602625" y="6633092"/>
-          <a:ext cx="2542134" cy="1721697"/>
+          <a:off x="9617593" y="6437149"/>
+          <a:ext cx="2558462" cy="1667269"/>
           <a:chOff x="12729883" y="2017059"/>
           <a:chExt cx="1961029" cy="983657"/>
         </a:xfrm>
@@ -9099,8 +9099,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12336075" y="1166212"/>
-          <a:ext cx="2604568" cy="839640"/>
+          <a:off x="12372814" y="1133555"/>
+          <a:ext cx="2620897" cy="817868"/>
           <a:chOff x="11598087" y="851647"/>
           <a:chExt cx="2162737" cy="795617"/>
         </a:xfrm>
@@ -9406,8 +9406,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13156031" y="2939462"/>
-          <a:ext cx="1962629" cy="908958"/>
+          <a:off x="13198213" y="2852376"/>
+          <a:ext cx="1978958" cy="881744"/>
           <a:chOff x="12729883" y="2017059"/>
           <a:chExt cx="1961029" cy="856129"/>
         </a:xfrm>
@@ -9722,8 +9722,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8253961" y="4916174"/>
-          <a:ext cx="2418870" cy="1142932"/>
+          <a:off x="8258043" y="4769217"/>
+          <a:ext cx="2435199" cy="1110275"/>
           <a:chOff x="1042147" y="5479676"/>
           <a:chExt cx="1961029" cy="672353"/>
         </a:xfrm>
@@ -10312,8 +10312,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12627443" y="4408713"/>
-          <a:ext cx="2322820" cy="1088573"/>
+          <a:off x="12664182" y="4278084"/>
+          <a:ext cx="2339149" cy="1055916"/>
           <a:chOff x="3899647" y="784414"/>
           <a:chExt cx="1804147" cy="1037181"/>
         </a:xfrm>
@@ -11006,7 +11006,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>132072</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>31285</xdr:rowOff>
+      <xdr:rowOff>107484</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11015,10 +11015,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="557895" y="9216111"/>
-          <a:ext cx="2567748" cy="1523995"/>
+          <a:off x="557895" y="8938525"/>
+          <a:ext cx="2574552" cy="1551209"/>
           <a:chOff x="1042147" y="3294529"/>
-          <a:chExt cx="1961029" cy="1174211"/>
+          <a:chExt cx="1961029" cy="1234871"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -11029,7 +11029,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1042147" y="3462617"/>
-            <a:ext cx="1961029" cy="394912"/>
+            <a:ext cx="1961029" cy="458021"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -11155,6 +11155,73 @@
               </a:rPr>
               <a:t>】</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>連番 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【SerialNo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -11171,7 +11238,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="3857529"/>
+            <a:off x="1042147" y="3918189"/>
             <a:ext cx="1961029" cy="611211"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -11444,13 +11511,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>17599</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>172581</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65620</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>13590</xdr:rowOff>
+      <xdr:colOff>151345</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11462,8 +11529,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8195492" y="8051117"/>
-          <a:ext cx="1408735" cy="1786830"/>
+          <a:off x="8199574" y="7807890"/>
+          <a:ext cx="1505346" cy="1580295"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -11489,15 +11556,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>557894</xdr:colOff>
+      <xdr:colOff>557895</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
+      <xdr:rowOff>42443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>394606</xdr:colOff>
+      <xdr:colOff>394576</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>43082</xdr:rowOff>
+      <xdr:rowOff>83799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11509,14 +11576,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="557894" y="6504216"/>
-          <a:ext cx="2830283" cy="3186330"/>
+          <a:off x="557895" y="6309893"/>
+          <a:ext cx="2837056" cy="3127456"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -8077"/>
-            <a:gd name="adj2" fmla="val 25836"/>
-            <a:gd name="adj3" fmla="val 108077"/>
+            <a:gd name="adj1" fmla="val -8058"/>
+            <a:gd name="adj2" fmla="val 26780"/>
+            <a:gd name="adj3" fmla="val 108058"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -11869,8 +11936,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DB設計書.xlsx
@@ -7244,13 +7244,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>879653</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>102459</xdr:rowOff>
+      <xdr:rowOff>102460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>17601</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>13614</xdr:rowOff>
+      <xdr:rowOff>156491</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7259,10 +7259,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5127803" y="6369909"/>
-          <a:ext cx="3071773" cy="2482905"/>
+          <a:off x="5127803" y="6369910"/>
+          <a:ext cx="3071773" cy="2625781"/>
           <a:chOff x="5333999" y="5229785"/>
-          <a:chExt cx="1704416" cy="2024503"/>
+          <a:chExt cx="1704416" cy="2141001"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -7272,8 +7272,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5334000" y="5378823"/>
-            <a:ext cx="1704414" cy="187137"/>
+            <a:off x="5334000" y="5378822"/>
+            <a:ext cx="1704414" cy="590665"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7335,6 +7335,140 @@
               </a:rPr>
               <a:t>ID 【charaID : int32】</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>行動セット日時</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【actSetDate : date】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>連番 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>【SerialNo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> : int32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>】</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7411,8 +7545,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5333999" y="5550274"/>
-            <a:ext cx="1704415" cy="1704014"/>
+            <a:off x="5333999" y="5969488"/>
+            <a:ext cx="1704415" cy="1401298"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7448,54 +7582,6 @@
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>行動セット日時</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>【actSetDate : date】</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
@@ -8012,7 +8098,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1042147" y="5647765"/>
-            <a:ext cx="1961029" cy="216746"/>
+            <a:ext cx="1961029" cy="317363"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8076,6 +8162,61 @@
               </a:rPr>
               <a:t> 【charaID : int32】</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>アイテム</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 【itemID : int32】</a:t>
+            </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -8092,8 +8233,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1042147" y="5871146"/>
-            <a:ext cx="1961029" cy="437913"/>
+            <a:off x="1042147" y="5965128"/>
+            <a:ext cx="1961029" cy="343931"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8129,54 +8270,6 @@
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>アイテム</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> 【itemID : int32】</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
@@ -10195,13 +10288,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>833228</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:rowOff>40477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>857262</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>162835</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70955</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10213,8 +10306,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5078657" y="2435678"/>
-          <a:ext cx="24034" cy="2421621"/>
+          <a:off x="5081378" y="2364577"/>
+          <a:ext cx="24034" cy="2430778"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10245,15 +10338,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>394608</xdr:colOff>
+      <xdr:colOff>394577</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>15899</xdr:rowOff>
+      <xdr:rowOff>19144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>833229</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>25092</xdr:rowOff>
+      <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10265,8 +10358,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3388179" y="4533470"/>
-          <a:ext cx="1690479" cy="893658"/>
+          <a:off x="3394952" y="4400644"/>
+          <a:ext cx="1686427" cy="941520"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10563,13 +10656,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>586699</xdr:colOff>
+      <xdr:colOff>588061</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>44901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>958896</xdr:colOff>
+      <xdr:colOff>958217</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>102458</xdr:rowOff>
     </xdr:to>
@@ -10583,8 +10676,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6091626" y="5997188"/>
-          <a:ext cx="765129" cy="372197"/>
+          <a:off x="6106935" y="5813152"/>
+          <a:ext cx="743357" cy="370156"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10822,14 +10915,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571491</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>162836</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76068</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>155698</xdr:rowOff>
+      <xdr:rowOff>154083</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10841,8 +10934,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7497527" y="4857300"/>
-          <a:ext cx="756434" cy="877327"/>
+          <a:off x="7505691" y="4795355"/>
+          <a:ext cx="752352" cy="768928"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -11464,13 +11557,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>17599</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>103689</xdr:rowOff>
+      <xdr:rowOff>104731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>64018</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>172581</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154447</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11482,8 +11575,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8195492" y="7805332"/>
-          <a:ext cx="1407133" cy="245785"/>
+          <a:off x="8199574" y="7572331"/>
+          <a:ext cx="1418019" cy="564066"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -11510,8 +11603,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>17599</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -11529,8 +11622,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8199574" y="7807890"/>
-          <a:ext cx="1505346" cy="1580295"/>
+          <a:off x="8199574" y="8136397"/>
+          <a:ext cx="1505346" cy="1251788"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -11936,8 +12029,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
